--- a/Proyecto/input/Telefonía Fija.xlsx
+++ b/Proyecto/input/Telefonía Fija.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stefanivilleda/Desktop/Programación II/Proyecto/programa-II/Proyecto/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E706A014-D4A7-684C-8535-CFDFA4D45745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB45751A-E289-894F-BFED-2039BDB56F9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="14360" xr2:uid="{3D3808CA-EA54-442D-838C-280ABB729A51}"/>
   </bookViews>
@@ -606,7 +606,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -618,6 +617,9 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1103,13 +1105,14 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H11" sqref="H11"/>
+      <selection pane="topRight" activeCell="B2" sqref="B2:K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="13.5" customWidth="1"/>
     <col min="12" max="12" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
@@ -1118,42 +1121,42 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="17">
         <v>2014</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1" s="17">
         <f>+B1+1</f>
         <v>2015</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" s="17">
         <f t="shared" ref="D1:K1" si="0">+C1+1</f>
         <v>2016</v>
       </c>
-      <c r="E1" s="1">
+      <c r="E1" s="17">
         <f t="shared" si="0"/>
         <v>2017</v>
       </c>
-      <c r="F1" s="1">
+      <c r="F1" s="17">
         <f t="shared" si="0"/>
         <v>2018</v>
       </c>
-      <c r="G1" s="1">
+      <c r="G1" s="17">
         <f t="shared" si="0"/>
         <v>2019</v>
       </c>
-      <c r="H1" s="1">
+      <c r="H1" s="17">
         <f t="shared" si="0"/>
         <v>2020</v>
       </c>
-      <c r="I1" s="1">
+      <c r="I1" s="17">
         <f t="shared" si="0"/>
         <v>2021</v>
       </c>
-      <c r="J1" s="1">
+      <c r="J1" s="17">
         <f t="shared" si="0"/>
         <v>2022</v>
       </c>
-      <c r="K1" s="1">
+      <c r="K1" s="17">
         <f t="shared" si="0"/>
         <v>2023</v>
       </c>
@@ -1932,59 +1935,59 @@
       <c r="A24" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="9">
+      <c r="B24" s="15">
         <v>1718298</v>
       </c>
-      <c r="C24" s="9">
+      <c r="C24" s="15">
         <v>1718850</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D24" s="15">
         <v>2454778</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E24" s="15">
         <v>2461109</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F24" s="15">
         <v>2436093</v>
       </c>
-      <c r="G24" s="9">
+      <c r="G24" s="15">
         <v>1971654</v>
       </c>
-      <c r="H24" s="9">
+      <c r="H24" s="15">
         <v>2271745</v>
       </c>
-      <c r="I24" s="9">
+      <c r="I24" s="15">
         <v>2319643</v>
       </c>
-      <c r="J24" s="9">
+      <c r="J24" s="15">
         <v>1917670</v>
       </c>
-      <c r="K24" s="9">
+      <c r="K24" s="15">
         <v>1939007</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="J25" s="10">
+      <c r="J25" s="9">
         <f>J24-'[6]Líneas total'!C35</f>
         <v>0</v>
       </c>
-      <c r="K25" s="10"/>
+      <c r="K25" s="9"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
     </row>
     <row r="28" spans="1:12" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="G28" s="11"/>
-      <c r="H28" s="12" t="s">
+      <c r="G28" s="10"/>
+      <c r="H28" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="I28" s="17" t="s">
+      <c r="I28" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="17"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="16"/>
     </row>
     <row r="29" spans="1:12" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
@@ -2021,18 +2024,18 @@
       <c r="A30" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B30" s="13">
+      <c r="B30" s="12">
         <v>13251</v>
       </c>
-      <c r="C30" s="13">
+      <c r="C30" s="12">
         <f t="shared" ref="C30:C51" si="1">$C$52*G30</f>
         <v>18973.23000015708</v>
       </c>
-      <c r="D30" s="13">
+      <c r="D30" s="12">
         <f t="shared" ref="D30:D51" si="2">$D$52*G30</f>
         <v>15218.045953954124</v>
       </c>
-      <c r="E30" s="13">
+      <c r="E30" s="12">
         <f t="shared" ref="E30:E51" si="3">$E$52*G30</f>
         <v>17882.629816080625</v>
       </c>
@@ -2043,13 +2046,13 @@
       <c r="H30" s="4">
         <v>742889</v>
       </c>
-      <c r="I30" s="14" t="e">
+      <c r="I30" s="13" t="e">
         <f>#REF!*H30</f>
         <v>#REF!</v>
       </c>
-      <c r="J30" s="14"/>
-      <c r="K30" s="14"/>
-      <c r="L30" s="14" t="e">
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -2058,18 +2061,18 @@
       <c r="A31" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B31" s="13">
+      <c r="B31" s="12">
         <v>4785</v>
       </c>
-      <c r="C31" s="13">
+      <c r="C31" s="12">
         <f t="shared" si="1"/>
         <v>6851.3248472380674</v>
       </c>
-      <c r="D31" s="13">
+      <c r="D31" s="12">
         <f t="shared" si="2"/>
         <v>5495.3097796144048</v>
       </c>
-      <c r="E31" s="13">
+      <c r="E31" s="12">
         <f t="shared" si="3"/>
         <v>6457.5038615912608</v>
       </c>
@@ -2080,13 +2083,13 @@
       <c r="H31" s="4">
         <v>194087</v>
       </c>
-      <c r="I31" s="14" t="e">
+      <c r="I31" s="13" t="e">
         <f>#REF!*H31</f>
         <v>#REF!</v>
       </c>
-      <c r="J31" s="14"/>
-      <c r="K31" s="14"/>
-      <c r="L31" s="14" t="e">
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -2095,18 +2098,18 @@
       <c r="A32" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="13">
+      <c r="B32" s="12">
         <v>17839</v>
       </c>
-      <c r="C32" s="13">
+      <c r="C32" s="12">
         <f t="shared" si="1"/>
         <v>25542.48358409193</v>
       </c>
-      <c r="D32" s="13">
+      <c r="D32" s="12">
         <f t="shared" si="2"/>
         <v>20487.112049851905</v>
       </c>
-      <c r="E32" s="13">
+      <c r="E32" s="12">
         <f t="shared" si="3"/>
         <v>24074.276151917762</v>
       </c>
@@ -2117,13 +2120,13 @@
       <c r="H32" s="4">
         <v>406333</v>
       </c>
-      <c r="I32" s="14" t="e">
+      <c r="I32" s="13" t="e">
         <f>#REF!*H32</f>
         <v>#REF!</v>
       </c>
-      <c r="J32" s="14"/>
-      <c r="K32" s="14"/>
-      <c r="L32" s="14" t="e">
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -2132,18 +2135,18 @@
       <c r="A33" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B33" s="13">
+      <c r="B33" s="12">
         <v>16390</v>
       </c>
-      <c r="C33" s="13">
+      <c r="C33" s="12">
         <f t="shared" si="1"/>
         <v>23467.756373298209</v>
       </c>
-      <c r="D33" s="13">
+      <c r="D33" s="12">
         <f t="shared" si="2"/>
         <v>18823.015107184972</v>
       </c>
-      <c r="E33" s="13">
+      <c r="E33" s="12">
         <f t="shared" si="3"/>
         <v>22118.806330507996</v>
       </c>
@@ -2154,13 +2157,13 @@
       <c r="H33" s="4">
         <v>268989</v>
       </c>
-      <c r="I33" s="14" t="e">
+      <c r="I33" s="13" t="e">
         <f>#REF!*H33</f>
         <v>#REF!</v>
       </c>
-      <c r="J33" s="14"/>
-      <c r="K33" s="14"/>
-      <c r="L33" s="14" t="e">
+      <c r="J33" s="13"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="13" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -2169,18 +2172,18 @@
       <c r="A34" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="13">
+      <c r="B34" s="12">
         <v>37402</v>
       </c>
-      <c r="C34" s="13">
+      <c r="C34" s="12">
         <f t="shared" si="1"/>
         <v>53553.448680542991</v>
       </c>
-      <c r="D34" s="13">
+      <c r="D34" s="12">
         <f t="shared" si="2"/>
         <v>42954.143443498011</v>
       </c>
-      <c r="E34" s="13">
+      <c r="E34" s="12">
         <f t="shared" si="3"/>
         <v>50475.143036831003</v>
       </c>
@@ -2191,13 +2194,13 @@
       <c r="H34" s="4">
         <v>503903</v>
       </c>
-      <c r="I34" s="14" t="e">
+      <c r="I34" s="13" t="e">
         <f>#REF!*H34</f>
         <v>#REF!</v>
       </c>
-      <c r="J34" s="14"/>
-      <c r="K34" s="14"/>
-      <c r="L34" s="14" t="e">
+      <c r="J34" s="13"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="13" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -2206,18 +2209,18 @@
       <c r="A35" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="13">
+      <c r="B35" s="12">
         <v>1365117</v>
       </c>
-      <c r="C35" s="13">
+      <c r="C35" s="12">
         <f t="shared" si="1"/>
         <v>1954620.6941456823</v>
       </c>
-      <c r="D35" s="13">
+      <c r="D35" s="12">
         <f t="shared" si="2"/>
         <v>1567761.9227623569</v>
       </c>
-      <c r="E35" s="13">
+      <c r="E35" s="12">
         <f t="shared" si="3"/>
         <v>1842267.1471314267</v>
       </c>
@@ -2228,13 +2231,13 @@
       <c r="H35" s="4">
         <v>2208202</v>
       </c>
-      <c r="I35" s="14" t="e">
+      <c r="I35" s="13" t="e">
         <f>#REF!*H35</f>
         <v>#REF!</v>
       </c>
-      <c r="J35" s="14"/>
-      <c r="K35" s="14"/>
-      <c r="L35" s="14" t="e">
+      <c r="J35" s="13"/>
+      <c r="K35" s="13"/>
+      <c r="L35" s="13" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -2243,18 +2246,18 @@
       <c r="A36" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="13">
+      <c r="B36" s="12">
         <v>19969</v>
       </c>
-      <c r="C36" s="13">
+      <c r="C36" s="12">
         <f t="shared" si="1"/>
         <v>28592.289628943985</v>
       </c>
-      <c r="D36" s="13">
+      <c r="D36" s="12">
         <f t="shared" si="2"/>
         <v>22933.300102219448</v>
       </c>
-      <c r="E36" s="13">
+      <c r="E36" s="12">
         <f t="shared" si="3"/>
         <v>26948.776303472496</v>
       </c>
@@ -2265,13 +2268,13 @@
       <c r="H36" s="4">
         <v>717486</v>
       </c>
-      <c r="I36" s="14" t="e">
+      <c r="I36" s="13" t="e">
         <f>#REF!*H36</f>
         <v>#REF!</v>
       </c>
-      <c r="J36" s="14"/>
-      <c r="K36" s="14"/>
-      <c r="L36" s="14" t="e">
+      <c r="J36" s="13"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="13" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -2280,18 +2283,18 @@
       <c r="A37" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B37" s="13">
+      <c r="B37" s="12">
         <v>19482</v>
       </c>
-      <c r="C37" s="13">
+      <c r="C37" s="12">
         <f t="shared" si="1"/>
         <v>27894.986556717246</v>
       </c>
-      <c r="D37" s="13">
+      <c r="D37" s="12">
         <f t="shared" si="2"/>
         <v>22374.007340950437</v>
       </c>
-      <c r="E37" s="13">
+      <c r="E37" s="12">
         <f t="shared" si="3"/>
         <v>26291.554907318899</v>
       </c>
@@ -2302,13 +2305,13 @@
       <c r="H37" s="4">
         <v>270138</v>
       </c>
-      <c r="I37" s="14" t="e">
+      <c r="I37" s="13" t="e">
         <f>#REF!*H37</f>
         <v>#REF!</v>
       </c>
-      <c r="J37" s="14"/>
-      <c r="K37" s="14"/>
-      <c r="L37" s="14" t="e">
+      <c r="J37" s="13"/>
+      <c r="K37" s="13"/>
+      <c r="L37" s="13" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -2317,18 +2320,18 @@
       <c r="A38" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B38" s="13">
+      <c r="B38" s="12">
         <v>7758</v>
       </c>
-      <c r="C38" s="13">
+      <c r="C38" s="12">
         <f t="shared" si="1"/>
         <v>11108.166805616076</v>
       </c>
-      <c r="D38" s="13">
+      <c r="D38" s="12">
         <f t="shared" si="2"/>
         <v>8909.6370470738875</v>
       </c>
-      <c r="E38" s="13">
+      <c r="E38" s="12">
         <f t="shared" si="3"/>
         <v>10469.658298479624</v>
       </c>
@@ -2339,13 +2342,13 @@
       <c r="H38" s="4">
         <v>220149</v>
       </c>
-      <c r="I38" s="14" t="e">
+      <c r="I38" s="13" t="e">
         <f>#REF!*H38</f>
         <v>#REF!</v>
       </c>
-      <c r="J38" s="14"/>
-      <c r="K38" s="14"/>
-      <c r="L38" s="14" t="e">
+      <c r="J38" s="13"/>
+      <c r="K38" s="13"/>
+      <c r="L38" s="13" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -2354,18 +2357,18 @@
       <c r="A39" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B39" s="13">
+      <c r="B39" s="12">
         <v>13860</v>
       </c>
-      <c r="C39" s="13">
+      <c r="C39" s="12">
         <f t="shared" si="1"/>
         <v>19845.216798896472</v>
       </c>
-      <c r="D39" s="13">
+      <c r="D39" s="12">
         <f t="shared" si="2"/>
         <v>15917.44901681414</v>
       </c>
-      <c r="E39" s="13">
+      <c r="E39" s="12">
         <f t="shared" si="3"/>
         <v>18704.493943919515</v>
       </c>
@@ -2376,13 +2379,13 @@
       <c r="H39" s="4">
         <v>334228</v>
       </c>
-      <c r="I39" s="14" t="e">
+      <c r="I39" s="13" t="e">
         <f>#REF!*H39</f>
         <v>#REF!</v>
       </c>
-      <c r="J39" s="14"/>
-      <c r="K39" s="14"/>
-      <c r="L39" s="14" t="e">
+      <c r="J39" s="13"/>
+      <c r="K39" s="13"/>
+      <c r="L39" s="13" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -2391,18 +2394,18 @@
       <c r="A40" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B40" s="13">
+      <c r="B40" s="12">
         <v>9550</v>
       </c>
-      <c r="C40" s="13">
+      <c r="C40" s="12">
         <f t="shared" si="1"/>
         <v>13674.013017998652</v>
       </c>
-      <c r="D40" s="13">
+      <c r="D40" s="12">
         <f t="shared" si="2"/>
         <v>10967.650657328646</v>
       </c>
-      <c r="E40" s="13">
+      <c r="E40" s="12">
         <f t="shared" si="3"/>
         <v>12888.017111430834</v>
       </c>
@@ -2413,13 +2416,13 @@
       <c r="H40" s="4">
         <v>347416</v>
       </c>
-      <c r="I40" s="14" t="e">
+      <c r="I40" s="13" t="e">
         <f>#REF!*H40</f>
         <v>#REF!</v>
       </c>
-      <c r="J40" s="14"/>
-      <c r="K40" s="14"/>
-      <c r="L40" s="14" t="e">
+      <c r="J40" s="13"/>
+      <c r="K40" s="13"/>
+      <c r="L40" s="13" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -2428,18 +2431,18 @@
       <c r="A41" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B41" s="13">
+      <c r="B41" s="12">
         <v>6582</v>
       </c>
-      <c r="C41" s="13">
+      <c r="C41" s="12">
         <f t="shared" si="1"/>
         <v>9424.3302287400129</v>
       </c>
-      <c r="D41" s="13">
+      <c r="D41" s="12">
         <f t="shared" si="2"/>
         <v>7559.0656153442033</v>
       </c>
-      <c r="E41" s="13">
+      <c r="E41" s="12">
         <f t="shared" si="3"/>
         <v>8882.6103274803918</v>
       </c>
@@ -2450,13 +2453,13 @@
       <c r="H41" s="4">
         <v>122703</v>
       </c>
-      <c r="I41" s="14" t="e">
+      <c r="I41" s="13" t="e">
         <f>#REF!*H41</f>
         <v>#REF!</v>
       </c>
-      <c r="J41" s="14"/>
-      <c r="K41" s="14"/>
-      <c r="L41" s="14" t="e">
+      <c r="J41" s="13"/>
+      <c r="K41" s="13"/>
+      <c r="L41" s="13" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -2465,18 +2468,18 @@
       <c r="A42" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B42" s="13">
+      <c r="B42" s="12">
         <v>57212</v>
       </c>
-      <c r="C42" s="13">
+      <c r="C42" s="12">
         <f t="shared" si="1"/>
         <v>81918.07673149099</v>
       </c>
-      <c r="D42" s="13">
+      <c r="D42" s="12">
         <f t="shared" si="2"/>
         <v>65704.840775611156</v>
       </c>
-      <c r="E42" s="13">
+      <c r="E42" s="12">
         <f t="shared" si="3"/>
         <v>77209.343976877586</v>
       </c>
@@ -2487,13 +2490,13 @@
       <c r="H42" s="4">
         <v>548868</v>
       </c>
-      <c r="I42" s="14" t="e">
+      <c r="I42" s="13" t="e">
         <f>#REF!*H42</f>
         <v>#REF!</v>
       </c>
-      <c r="J42" s="14"/>
-      <c r="K42" s="14"/>
-      <c r="L42" s="14" t="e">
+      <c r="J42" s="13"/>
+      <c r="K42" s="13"/>
+      <c r="L42" s="13" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -2502,18 +2505,18 @@
       <c r="A43" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B43" s="13">
+      <c r="B43" s="12">
         <v>9463</v>
       </c>
-      <c r="C43" s="13">
+      <c r="C43" s="12">
         <f t="shared" si="1"/>
         <v>13549.443475321594</v>
       </c>
-      <c r="D43" s="13">
+      <c r="D43" s="12">
         <f t="shared" si="2"/>
         <v>10867.735934062928</v>
       </c>
-      <c r="E43" s="13">
+      <c r="E43" s="12">
         <f t="shared" si="3"/>
         <v>12770.607950310992</v>
       </c>
@@ -2524,13 +2527,13 @@
       <c r="H43" s="4">
         <v>580371</v>
       </c>
-      <c r="I43" s="14" t="e">
+      <c r="I43" s="13" t="e">
         <f>#REF!*H43</f>
         <v>#REF!</v>
       </c>
-      <c r="J43" s="14"/>
-      <c r="K43" s="14"/>
-      <c r="L43" s="14" t="e">
+      <c r="J43" s="13"/>
+      <c r="K43" s="13"/>
+      <c r="L43" s="13" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -2539,18 +2542,18 @@
       <c r="A44" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B44" s="13">
+      <c r="B44" s="12">
         <v>13379</v>
       </c>
-      <c r="C44" s="13">
+      <c r="C44" s="12">
         <f t="shared" si="1"/>
         <v>19156.504729612978</v>
       </c>
-      <c r="D44" s="13">
+      <c r="D44" s="12">
         <f t="shared" si="2"/>
         <v>15365.046926115177</v>
       </c>
-      <c r="E44" s="13">
+      <c r="E44" s="12">
         <f t="shared" si="3"/>
         <v>18055.369731291426</v>
       </c>
@@ -2561,13 +2564,13 @@
       <c r="H44" s="4">
         <v>217930</v>
       </c>
-      <c r="I44" s="14" t="e">
+      <c r="I44" s="13" t="e">
         <f>#REF!*H44</f>
         <v>#REF!</v>
       </c>
-      <c r="J44" s="14"/>
-      <c r="K44" s="14"/>
-      <c r="L44" s="14" t="e">
+      <c r="J44" s="13"/>
+      <c r="K44" s="13"/>
+      <c r="L44" s="13" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -2576,18 +2579,18 @@
       <c r="A45" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B45" s="13">
+      <c r="B45" s="12">
         <v>28785</v>
       </c>
-      <c r="C45" s="13">
+      <c r="C45" s="12">
         <f t="shared" si="1"/>
         <v>41215.336620218972</v>
       </c>
-      <c r="D45" s="13">
+      <c r="D45" s="12">
         <f t="shared" si="2"/>
         <v>33057.992059812052</v>
       </c>
-      <c r="E45" s="13">
+      <c r="E45" s="12">
         <f t="shared" si="3"/>
         <v>38846.23796361639</v>
       </c>
@@ -2598,13 +2601,13 @@
       <c r="H45" s="4">
         <v>235375</v>
       </c>
-      <c r="I45" s="14" t="e">
+      <c r="I45" s="13" t="e">
         <f>#REF!*H45</f>
         <v>#REF!</v>
       </c>
-      <c r="J45" s="14"/>
-      <c r="K45" s="14"/>
-      <c r="L45" s="14" t="e">
+      <c r="J45" s="13"/>
+      <c r="K45" s="13"/>
+      <c r="L45" s="13" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -2613,18 +2616,18 @@
       <c r="A46" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B46" s="13">
+      <c r="B46" s="12">
         <v>19687</v>
       </c>
-      <c r="C46" s="13">
+      <c r="C46" s="12">
         <f t="shared" si="1"/>
         <v>28188.512490611458</v>
       </c>
-      <c r="D46" s="13">
+      <c r="D46" s="12">
         <f t="shared" si="2"/>
         <v>22609.438585427124</v>
       </c>
-      <c r="E46" s="13">
+      <c r="E46" s="12">
         <f t="shared" si="3"/>
         <v>26568.208677773699</v>
       </c>
@@ -2635,13 +2638,13 @@
       <c r="H46" s="4">
         <v>648975</v>
       </c>
-      <c r="I46" s="14" t="e">
+      <c r="I46" s="13" t="e">
         <f>#REF!*H46</f>
         <v>#REF!</v>
       </c>
-      <c r="J46" s="14"/>
-      <c r="K46" s="14"/>
-      <c r="L46" s="14" t="e">
+      <c r="J46" s="13"/>
+      <c r="K46" s="13"/>
+      <c r="L46" s="13" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -2650,18 +2653,18 @@
       <c r="A47" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B47" s="13">
+      <c r="B47" s="12">
         <v>8590</v>
       </c>
-      <c r="C47" s="13">
+      <c r="C47" s="12">
         <f t="shared" si="1"/>
         <v>12299.452547079416</v>
       </c>
-      <c r="D47" s="13">
+      <c r="D47" s="12">
         <f t="shared" si="2"/>
         <v>9865.1433661207411</v>
       </c>
-      <c r="E47" s="13">
+      <c r="E47" s="12">
         <f t="shared" si="3"/>
         <v>11592.467747349829</v>
       </c>
@@ -2672,13 +2675,13 @@
       <c r="H47" s="4">
         <v>270166</v>
       </c>
-      <c r="I47" s="14" t="e">
+      <c r="I47" s="13" t="e">
         <f>#REF!*H47</f>
         <v>#REF!</v>
       </c>
-      <c r="J47" s="14"/>
-      <c r="K47" s="14"/>
-      <c r="L47" s="14" t="e">
+      <c r="J47" s="13"/>
+      <c r="K47" s="13"/>
+      <c r="L47" s="13" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -2687,18 +2690,18 @@
       <c r="A48" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B48" s="13">
+      <c r="B48" s="12">
         <v>7263</v>
       </c>
-      <c r="C48" s="13">
+      <c r="C48" s="12">
         <f t="shared" si="1"/>
         <v>10399.409062798346</v>
       </c>
-      <c r="D48" s="13">
+      <c r="D48" s="12">
         <f t="shared" si="2"/>
         <v>8341.1567250448115</v>
       </c>
-      <c r="E48" s="13">
+      <c r="E48" s="12">
         <f t="shared" si="3"/>
         <v>9801.6406576253557</v>
       </c>
@@ -2709,13 +2712,13 @@
       <c r="H48" s="4">
         <v>282335</v>
       </c>
-      <c r="I48" s="14" t="e">
+      <c r="I48" s="13" t="e">
         <f>#REF!*H48</f>
         <v>#REF!</v>
       </c>
-      <c r="J48" s="14"/>
-      <c r="K48" s="14"/>
-      <c r="L48" s="14" t="e">
+      <c r="J48" s="13"/>
+      <c r="K48" s="13"/>
+      <c r="L48" s="13" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -2724,18 +2727,18 @@
       <c r="A49" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B49" s="13">
+      <c r="B49" s="12">
         <v>18010</v>
       </c>
-      <c r="C49" s="13">
+      <c r="C49" s="12">
         <f t="shared" si="1"/>
         <v>25787.327167974421</v>
       </c>
-      <c r="D49" s="13">
+      <c r="D49" s="12">
         <f t="shared" si="2"/>
         <v>20683.496161098315</v>
       </c>
-      <c r="E49" s="13">
+      <c r="E49" s="12">
         <f t="shared" si="3"/>
         <v>24305.045882394694</v>
       </c>
@@ -2746,13 +2749,13 @@
       <c r="H49" s="4">
         <v>364761</v>
       </c>
-      <c r="I49" s="14" t="e">
+      <c r="I49" s="13" t="e">
         <f>#REF!*H49</f>
         <v>#REF!</v>
       </c>
-      <c r="J49" s="14"/>
-      <c r="K49" s="14"/>
-      <c r="L49" s="14" t="e">
+      <c r="J49" s="13"/>
+      <c r="K49" s="13"/>
+      <c r="L49" s="13" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -2761,18 +2764,18 @@
       <c r="A50" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B50" s="13">
+      <c r="B50" s="12">
         <v>7499</v>
       </c>
-      <c r="C50" s="13">
+      <c r="C50" s="12">
         <f t="shared" si="1"/>
         <v>10737.321845232658</v>
       </c>
-      <c r="D50" s="13">
+      <c r="D50" s="12">
         <f t="shared" si="2"/>
         <v>8612.1897674667543</v>
       </c>
-      <c r="E50" s="13">
+      <c r="E50" s="12">
         <f t="shared" si="3"/>
         <v>10120.129876295268</v>
       </c>
@@ -2783,13 +2786,13 @@
       <c r="H50" s="4">
         <v>274247</v>
       </c>
-      <c r="I50" s="14" t="e">
+      <c r="I50" s="13" t="e">
         <f>#REF!*H50</f>
         <v>#REF!</v>
       </c>
-      <c r="J50" s="14"/>
-      <c r="K50" s="14"/>
-      <c r="L50" s="14" t="e">
+      <c r="J50" s="13"/>
+      <c r="K50" s="13"/>
+      <c r="L50" s="13" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -2798,18 +2801,18 @@
       <c r="A51" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B51" s="13">
+      <c r="B51" s="12">
         <v>16977</v>
       </c>
-      <c r="C51" s="13">
+      <c r="C51" s="12">
         <f t="shared" si="1"/>
         <v>24308.242827912367</v>
       </c>
-      <c r="D51" s="13">
+      <c r="D51" s="12">
         <f t="shared" si="2"/>
         <v>19497.152377954808</v>
       </c>
-      <c r="E51" s="13">
+      <c r="E51" s="12">
         <f t="shared" si="3"/>
         <v>22910.98078542003</v>
       </c>
@@ -2820,13 +2823,13 @@
       <c r="H51" s="4">
         <v>169010</v>
       </c>
-      <c r="I51" s="14" t="e">
+      <c r="I51" s="13" t="e">
         <f>#REF!*H51</f>
         <v>#REF!</v>
       </c>
-      <c r="J51" s="14"/>
-      <c r="K51" s="14"/>
-      <c r="L51" s="14" t="e">
+      <c r="J51" s="13"/>
+      <c r="K51" s="13"/>
+      <c r="L51" s="13" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -2835,103 +2838,103 @@
       <c r="A52" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B52" s="10">
+      <c r="B52" s="9">
         <v>1718851</v>
       </c>
-      <c r="C52" s="10">
+      <c r="C52" s="9">
         <v>2461109</v>
       </c>
-      <c r="D52" s="10">
+      <c r="D52" s="9">
         <v>1974006</v>
       </c>
-      <c r="E52" s="10">
+      <c r="E52" s="9">
         <v>2319642</v>
       </c>
-      <c r="G52" s="15">
+      <c r="G52" s="14">
         <f t="shared" ref="G52" si="5">SUM(G30:G51)</f>
         <v>0.9999994182160058</v>
       </c>
-      <c r="H52" s="16">
+      <c r="H52" s="15">
         <f>SUM(H30:H51)</f>
         <v>9928561</v>
       </c>
-      <c r="I52" s="16" t="e">
+      <c r="I52" s="15" t="e">
         <f>SUM(I30:I51)</f>
         <v>#REF!</v>
       </c>
-      <c r="J52" s="16"/>
-      <c r="K52" s="16"/>
-      <c r="L52" s="16" t="e">
+      <c r="J52" s="15"/>
+      <c r="K52" s="15"/>
+      <c r="L52" s="15" t="e">
         <f t="shared" ref="L52" si="6">SUM(L30:L51)</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="53" spans="1:12" hidden="1" x14ac:dyDescent="0.2"/>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="L55" s="10"/>
+      <c r="L55" s="9"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="L56" s="10"/>
+      <c r="L56" s="9"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="L57" s="10"/>
+      <c r="L57" s="9"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="L58" s="10"/>
+      <c r="L58" s="9"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="L59" s="10"/>
+      <c r="L59" s="9"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="L60" s="10"/>
+      <c r="L60" s="9"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="L61" s="10"/>
+      <c r="L61" s="9"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="L62" s="10"/>
+      <c r="L62" s="9"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="L63" s="10"/>
+      <c r="L63" s="9"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="L64" s="10"/>
+      <c r="L64" s="9"/>
     </row>
     <row r="65" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L65" s="10"/>
+      <c r="L65" s="9"/>
     </row>
     <row r="66" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L66" s="10"/>
+      <c r="L66" s="9"/>
     </row>
     <row r="67" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L67" s="10"/>
+      <c r="L67" s="9"/>
     </row>
     <row r="68" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L68" s="10"/>
+      <c r="L68" s="9"/>
     </row>
     <row r="69" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L69" s="10"/>
+      <c r="L69" s="9"/>
     </row>
     <row r="70" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L70" s="10"/>
+      <c r="L70" s="9"/>
     </row>
     <row r="71" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L71" s="10"/>
+      <c r="L71" s="9"/>
     </row>
     <row r="72" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L72" s="10"/>
+      <c r="L72" s="9"/>
     </row>
     <row r="73" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L73" s="10"/>
+      <c r="L73" s="9"/>
     </row>
     <row r="74" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L74" s="10"/>
+      <c r="L74" s="9"/>
     </row>
     <row r="75" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L75" s="10"/>
+      <c r="L75" s="9"/>
     </row>
     <row r="76" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L76" s="10"/>
+      <c r="L76" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Proyecto/input/Telefonía Fija.xlsx
+++ b/Proyecto/input/Telefonía Fija.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stefanivilleda/Desktop/Programación II/Proyecto/programa-II/Proyecto/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB45751A-E289-894F-BFED-2039BDB56F9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88E6D791-2BFD-9940-A0FF-4F25450CE1AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="14360" xr2:uid="{3D3808CA-EA54-442D-838C-280ABB729A51}"/>
   </bookViews>
@@ -21,14 +21,13 @@
     <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
     <externalReference r:id="rId6"/>
-    <externalReference r:id="rId7"/>
   </externalReferences>
   <definedNames>
-    <definedName name="__" hidden="1">'[2]Prod. Agrícolas de Exportación'!#REF!</definedName>
-    <definedName name="__11" hidden="1">'[3]indice 97-98'!#REF!</definedName>
-    <definedName name="__123Graph_A" hidden="1">'[2]Prod. Agrícolas de Exportación'!#REF!</definedName>
-    <definedName name="__123Graph_B" hidden="1">'[2]Prod. Agrícolas de Exportación'!#REF!</definedName>
-    <definedName name="_1">'[2]Prod. Agrícolas de Exportación'!#REF!</definedName>
+    <definedName name="__" hidden="1">'[1]Prod. Agrícolas de Exportación'!#REF!</definedName>
+    <definedName name="__11" hidden="1">'[2]indice 97-98'!#REF!</definedName>
+    <definedName name="__123Graph_A" hidden="1">'[1]Prod. Agrícolas de Exportación'!#REF!</definedName>
+    <definedName name="__123Graph_B" hidden="1">'[1]Prod. Agrícolas de Exportación'!#REF!</definedName>
+    <definedName name="_1">'[1]Prod. Agrícolas de Exportación'!#REF!</definedName>
     <definedName name="_13B">#REF!</definedName>
     <definedName name="_13BB">#REF!</definedName>
     <definedName name="_14A">#REF!</definedName>
@@ -36,7 +35,7 @@
     <definedName name="_14D">#REF!</definedName>
     <definedName name="_14E">#REF!</definedName>
     <definedName name="_14EE">#REF!</definedName>
-    <definedName name="_2">'[4]IMBANCA Y SEGUROS FINAL'!#REF!</definedName>
+    <definedName name="_2">'[3]IMBANCA Y SEGUROS FINAL'!#REF!</definedName>
     <definedName name="_58">#REF!</definedName>
     <definedName name="_5A">#REF!</definedName>
     <definedName name="_5AA">#REF!</definedName>
@@ -51,11 +50,11 @@
     <definedName name="_JUN4">#N/A</definedName>
     <definedName name="_Key1" hidden="1">#REF!</definedName>
     <definedName name="_Order1" hidden="1">255</definedName>
-    <definedName name="_otro" hidden="1">'[2]Prod. Agrícolas de Exportación'!#REF!</definedName>
+    <definedName name="_otro" hidden="1">'[1]Prod. Agrícolas de Exportación'!#REF!</definedName>
     <definedName name="_R">#REF!</definedName>
     <definedName name="_RTI58">#REF!</definedName>
     <definedName name="_Sort" hidden="1">#REF!</definedName>
-    <definedName name="\0">'[1]PIB POR SECTORES'!#REF!</definedName>
+    <definedName name="\0">'[4]PIB POR SECTORES'!#REF!</definedName>
     <definedName name="\1">#REF!</definedName>
     <definedName name="\2">#REF!</definedName>
     <definedName name="\3">#REF!</definedName>
@@ -98,7 +97,7 @@
     <definedName name="\y">#REF!</definedName>
     <definedName name="\z">#REF!</definedName>
     <definedName name="A">#REF!</definedName>
-    <definedName name="A_impresión_IM">'[1]PIB POR SECTORES'!#REF!</definedName>
+    <definedName name="A_impresión_IM">'[4]PIB POR SECTORES'!#REF!</definedName>
     <definedName name="AAA">#REF!</definedName>
     <definedName name="B">#REF!</definedName>
     <definedName name="BASICA">#N/A</definedName>
@@ -113,12 +112,12 @@
     <definedName name="DEUDA">#REF!</definedName>
     <definedName name="E">#REF!</definedName>
     <definedName name="EJEMPLO">#REF!</definedName>
-    <definedName name="EXPORT">'[2]Prod. Agrícolas de Exportación'!#REF!</definedName>
+    <definedName name="EXPORT">'[1]Prod. Agrícolas de Exportación'!#REF!</definedName>
     <definedName name="FECHA">#REF!</definedName>
     <definedName name="FER">#REF!</definedName>
     <definedName name="FONDO">#REF!</definedName>
-    <definedName name="FRV">'[1]PIB POR SECTORES'!#REF!</definedName>
-    <definedName name="GATO">'[1]PIB POR SECTORES'!#REF!</definedName>
+    <definedName name="FRV">'[4]PIB POR SECTORES'!#REF!</definedName>
+    <definedName name="GATO">'[4]PIB POR SECTORES'!#REF!</definedName>
     <definedName name="_xlnm.Recorder">#REF!</definedName>
     <definedName name="HOJA1">#REF!</definedName>
     <definedName name="HOJA2">#REF!</definedName>
@@ -134,40 +133,40 @@
     <definedName name="HTML_OS" hidden="1">0</definedName>
     <definedName name="HTML_PathFile" hidden="1">"C:\Mis documentos\ceie01.htm"</definedName>
     <definedName name="HTML_Title" hidden="1">""</definedName>
-    <definedName name="IMAE">'[4]IMBANCA Y SEGUROS FINAL'!#REF!</definedName>
-    <definedName name="IMPRESION" hidden="1">'[2]Prod. Agrícolas de Exportación'!#REF!</definedName>
-    <definedName name="IND">'[4]IMBANCA Y SEGUROS FINAL'!#REF!</definedName>
+    <definedName name="IMAE">'[3]IMBANCA Y SEGUROS FINAL'!#REF!</definedName>
+    <definedName name="IMPRESION" hidden="1">'[1]Prod. Agrícolas de Exportación'!#REF!</definedName>
+    <definedName name="IND">'[3]IMBANCA Y SEGUROS FINAL'!#REF!</definedName>
     <definedName name="INDCONST">'[5]CONSTRUCCIÓN PRIVADA Y PUBLICA'!$AA$11:$AA$124</definedName>
     <definedName name="INDCONST2">'[5]CONSTRUCCIÓN PRIVADA Y PUBLICA'!$AE$778:$AE$891</definedName>
     <definedName name="INDICE">#REF!</definedName>
     <definedName name="INE">#REF!</definedName>
     <definedName name="IS">#REF!</definedName>
     <definedName name="M">#REF!</definedName>
-    <definedName name="OTO">'[1]PIB POR SECTORES'!#REF!</definedName>
+    <definedName name="OTO">'[4]PIB POR SECTORES'!#REF!</definedName>
     <definedName name="PETRO">#REF!</definedName>
     <definedName name="PIB_K">#REF!</definedName>
-    <definedName name="PIBSEC">'[1]PIB POR SECTORES'!#REF!</definedName>
-    <definedName name="PIBSEC58">'[1]PIB POR SECTORES'!#REF!</definedName>
+    <definedName name="PIBSEC">'[4]PIB POR SECTORES'!#REF!</definedName>
+    <definedName name="PIBSEC58">'[4]PIB POR SECTORES'!#REF!</definedName>
     <definedName name="pibsect">#REF!</definedName>
     <definedName name="PRINT_AREA">#REF!</definedName>
     <definedName name="PRINT_TITLES">#REF!</definedName>
     <definedName name="REL">#REF!</definedName>
     <definedName name="RES">#REF!</definedName>
     <definedName name="RESERV">#REF!</definedName>
-    <definedName name="ROSA">'[1]PIB POR SECTORES'!#REF!</definedName>
+    <definedName name="ROSA">'[4]PIB POR SECTORES'!#REF!</definedName>
     <definedName name="S">#REF!</definedName>
     <definedName name="SEC">#REF!</definedName>
-    <definedName name="SECT">'[1]PIB POR SECTORES'!#REF!</definedName>
+    <definedName name="SECT">'[4]PIB POR SECTORES'!#REF!</definedName>
     <definedName name="SECT58PIB">#REF!</definedName>
     <definedName name="SECTOR">#REF!</definedName>
-    <definedName name="slslss">'[1]PIB POR SECTORES'!#REF!</definedName>
+    <definedName name="slslss">'[4]PIB POR SECTORES'!#REF!</definedName>
     <definedName name="T">#REF!</definedName>
     <definedName name="TERM">#REF!</definedName>
     <definedName name="TITULO">#REF!</definedName>
     <definedName name="TM">#N/A</definedName>
     <definedName name="TODO">#N/A</definedName>
     <definedName name="TRAS">#N/A</definedName>
-    <definedName name="UNO">'[2]Prod. Agrícolas de Exportación'!#REF!</definedName>
+    <definedName name="UNO">'[1]Prod. Agrícolas de Exportación'!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -615,11 +614,11 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -641,6 +640,77 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="CIFRAS ANUALES"/>
+      <sheetName val="Cifras Mensualizadas"/>
+      <sheetName val="Prod. Agrícolas de Exportación"/>
+      <sheetName val="Prod. Agrícolas de Con. Interno"/>
+      <sheetName val="Prod. Agrícolas de C. Industria"/>
+      <sheetName val="Productos Pecuarios"/>
+      <sheetName val="IMAA"/>
+      <sheetName val="Cuadros del IMAA"/>
+      <sheetName val="Componentes de las Series"/>
+      <sheetName val="Componentes con TRAMO-SEATS"/>
+      <sheetName val="NOTRAD"/>
+      <sheetName val="Hoja3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="indice 97-98"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="IMBANCA Y SEGUROS FINAL"/>
+      <sheetName val="BANCA"/>
+      <sheetName val="SEGUROS"/>
+      <sheetName val="INDICADORES AJUSTADOS"/>
+      <sheetName val="Indices para procesar"/>
+      <sheetName val="Benchmark.Banca y Seguros"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -683,77 +753,6 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="CIFRAS ANUALES"/>
-      <sheetName val="Cifras Mensualizadas"/>
-      <sheetName val="Prod. Agrícolas de Exportación"/>
-      <sheetName val="Prod. Agrícolas de Con. Interno"/>
-      <sheetName val="Prod. Agrícolas de C. Industria"/>
-      <sheetName val="Productos Pecuarios"/>
-      <sheetName val="IMAA"/>
-      <sheetName val="Cuadros del IMAA"/>
-      <sheetName val="Componentes de las Series"/>
-      <sheetName val="Componentes con TRAMO-SEATS"/>
-      <sheetName val="NOTRAD"/>
-      <sheetName val="Hoja3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="indice 97-98"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="IMBANCA Y SEGUROS FINAL"/>
-      <sheetName val="BANCA"/>
-      <sheetName val="SEGUROS"/>
-      <sheetName val="INDICADORES AJUSTADOS"/>
-      <sheetName val="Indices para procesar"/>
-      <sheetName val="Benchmark.Banca y Seguros"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -768,37 +767,6 @@
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Líneas total"/>
-      <sheetName val="Radiobases"/>
-      <sheetName val="Telefonía Fija"/>
-      <sheetName val="Hoja1"/>
-      <sheetName val="SALIDA"/>
-      <sheetName val="Ajustes"/>
-      <sheetName val="TOP BD"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="35">
-          <cell r="C35">
-            <v>1917670</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1121,42 +1089,42 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17">
+      <c r="B1" s="16">
         <v>2014</v>
       </c>
-      <c r="C1" s="17">
+      <c r="C1" s="16">
         <f>+B1+1</f>
         <v>2015</v>
       </c>
-      <c r="D1" s="17">
+      <c r="D1" s="16">
         <f t="shared" ref="D1:K1" si="0">+C1+1</f>
         <v>2016</v>
       </c>
-      <c r="E1" s="17">
+      <c r="E1" s="16">
         <f t="shared" si="0"/>
         <v>2017</v>
       </c>
-      <c r="F1" s="17">
+      <c r="F1" s="16">
         <f t="shared" si="0"/>
         <v>2018</v>
       </c>
-      <c r="G1" s="17">
+      <c r="G1" s="16">
         <f t="shared" si="0"/>
         <v>2019</v>
       </c>
-      <c r="H1" s="17">
+      <c r="H1" s="16">
         <f t="shared" si="0"/>
         <v>2020</v>
       </c>
-      <c r="I1" s="17">
+      <c r="I1" s="16">
         <f t="shared" si="0"/>
         <v>2021</v>
       </c>
-      <c r="J1" s="17">
+      <c r="J1" s="16">
         <f t="shared" si="0"/>
         <v>2022</v>
       </c>
-      <c r="K1" s="17">
+      <c r="K1" s="16">
         <f t="shared" si="0"/>
         <v>2023</v>
       </c>
@@ -1968,7 +1936,6 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="J25" s="9">
-        <f>J24-'[6]Líneas total'!C35</f>
         <v>0</v>
       </c>
       <c r="K25" s="9"/>
@@ -1982,12 +1949,12 @@
       <c r="H28" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="I28" s="16" t="s">
+      <c r="I28" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="J28" s="16"/>
-      <c r="K28" s="16"/>
-      <c r="L28" s="16"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="17"/>
     </row>
     <row r="29" spans="1:12" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
